--- a/output/StructureDefinition-NatlDir-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDir-PractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T13:08:13-05:00</t>
+    <t>2021-11-29T12:19:39-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDir-PractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T12:19:39-05:00</t>
+    <t>2021-11-29T15:16:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDir-PractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T15:16:50-05:00</t>
+    <t>2021-12-02T09:56:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDir-PractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T09:56:35-05:00</t>
+    <t>2021-12-02T10:29:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDir-PractitionerRole.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-PractitionerRole</t>
+    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-PractitionerRole</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T10:29:42-05:00</t>
+    <t>2021-12-09T08:58:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -612,7 +612,7 @@
     <t>newpatients</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/newpatients}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/newpatients}
 </t>
   </si>
   <si>
@@ -635,7 +635,7 @@
     <t>network-reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/network-reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/network-reference}
 </t>
   </si>
   <si>
@@ -648,7 +648,7 @@
     <t>qualification</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/qualification}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/qualification}
 </t>
   </si>
   <si>
@@ -714,13 +714,13 @@
 </t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/ValueSet/IndividualSpecialtyAndDegreeLicenseCertificateVS</t>
+    <t>http://hl7.org/fhir/us/national-directory/ValueSet/IndividualSpecialtyAndDegreeLicenseCertificateVS</t>
   </si>
   <si>
     <t>issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -740,7 +740,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/ValueSet/QualificationStatusVS</t>
+    <t>http://hl7.org/fhir/us/national-directory/ValueSet/QualificationStatusVS</t>
   </si>
   <si>
     <t>period</t>
@@ -754,7 +754,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Location)</t>
+Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Location)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
@@ -763,7 +763,7 @@
     <t>PractitionerRole.extension.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/qualification</t>
+    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/qualification</t>
   </si>
   <si>
     <t>PractitionerRole.extension.value[x]</t>
@@ -1037,7 +1037,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Practitioner)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Practitioner)
 </t>
   </si>
   <si>
@@ -1077,7 +1077,7 @@
     <t>Need to know what authority the practitioner has - what can they do?</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/ValueSet/PractitionerRoleVS</t>
+    <t>http://hl7.org/fhir/us/national-directory/ValueSet/PractitionerRoleVS</t>
   </si>
   <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
@@ -1095,7 +1095,7 @@
     <t>Specific specialty of the practitioner.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/ValueSet/IndividualAndGroupSpecialtiesVS</t>
+    <t>http://hl7.org/fhir/us/national-directory/ValueSet/IndividualAndGroupSpecialtiesVS</t>
   </si>
   <si>
     <t>PRA-5</t>
@@ -1110,7 +1110,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Location)
 </t>
   </si>
   <si>
@@ -1132,7 +1132,7 @@
     <t>PractitionerRole.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-HealthcareService)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-HealthcareService)
 </t>
   </si>
   <si>
@@ -1176,7 +1176,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1189,7 +1189,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1460,7 +1460,7 @@
     <t>PractitionerRole.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Endpoint)
 </t>
   </si>
   <si>
@@ -1825,7 +1825,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="101.84375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="91.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-NatlDir-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDir-PractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T08:58:20-05:00</t>
+    <t>2021-12-16T09:47:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDir-PractitionerRole.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-PractitionerRole</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-PractitionerRole</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T09:47:40-05:00</t>
+    <t>2021-12-17T09:57:57-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -612,7 +612,7 @@
     <t>newpatients</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/newpatients}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/newpatients}
 </t>
   </si>
   <si>
@@ -635,7 +635,7 @@
     <t>network-reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/network-reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/network-reference}
 </t>
   </si>
   <si>
@@ -648,7 +648,7 @@
     <t>qualification</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/qualification}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/qualification}
 </t>
   </si>
   <si>
@@ -714,13 +714,13 @@
 </t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/ValueSet/IndividualSpecialtyAndDegreeLicenseCertificateVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/IndividualSpecialtyAndDegreeLicenseCertificateVS</t>
   </si>
   <si>
     <t>issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -740,7 +740,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/ValueSet/QualificationStatusVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/QualificationStatusVS</t>
   </si>
   <si>
     <t>period</t>
@@ -754,7 +754,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Location)</t>
+Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Location)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
@@ -763,7 +763,7 @@
     <t>PractitionerRole.extension.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/qualification</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/qualification</t>
   </si>
   <si>
     <t>PractitionerRole.extension.value[x]</t>
@@ -1037,7 +1037,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Practitioner)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Practitioner)
 </t>
   </si>
   <si>
@@ -1077,7 +1077,7 @@
     <t>Need to know what authority the practitioner has - what can they do?</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/ValueSet/PractitionerRoleVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/PractitionerRoleVS</t>
   </si>
   <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
@@ -1095,7 +1095,7 @@
     <t>Specific specialty of the practitioner.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/ValueSet/IndividualAndGroupSpecialtiesVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/IndividualAndGroupSpecialtiesVS</t>
   </si>
   <si>
     <t>PRA-5</t>
@@ -1110,7 +1110,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Location)
 </t>
   </si>
   <si>
@@ -1132,7 +1132,7 @@
     <t>PractitionerRole.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-HealthcareService)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-HealthcareService)
 </t>
   </si>
   <si>
@@ -1176,7 +1176,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1189,7 +1189,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1460,7 +1460,7 @@
     <t>PractitionerRole.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Endpoint)
 </t>
   </si>
   <si>
@@ -1825,7 +1825,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="91.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="96.54296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-NatlDir-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDir-PractitionerRole.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-PractitionerRole</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-PractitionerRole</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T09:57:57-05:00</t>
+    <t>2021-12-17T10:34:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -612,7 +612,7 @@
     <t>newpatients</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/newpatients}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/newpatients}
 </t>
   </si>
   <si>
@@ -635,7 +635,7 @@
     <t>network-reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/network-reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/network-reference}
 </t>
   </si>
   <si>
@@ -648,7 +648,7 @@
     <t>qualification</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/qualification}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/qualification}
 </t>
   </si>
   <si>
@@ -714,13 +714,13 @@
 </t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/IndividualSpecialtyAndDegreeLicenseCertificateVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/IndividualSpecialtyAndDegreeLicenseCertificateVS</t>
   </si>
   <si>
     <t>issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -740,7 +740,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/QualificationStatusVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/QualificationStatusVS</t>
   </si>
   <si>
     <t>period</t>
@@ -754,7 +754,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Location)</t>
+Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Location)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
@@ -763,7 +763,7 @@
     <t>PractitionerRole.extension.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/qualification</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/qualification</t>
   </si>
   <si>
     <t>PractitionerRole.extension.value[x]</t>
@@ -1037,7 +1037,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Practitioner)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Practitioner)
 </t>
   </si>
   <si>
@@ -1077,7 +1077,7 @@
     <t>Need to know what authority the practitioner has - what can they do?</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/PractitionerRoleVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/PractitionerRoleVS</t>
   </si>
   <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
@@ -1095,7 +1095,7 @@
     <t>Specific specialty of the practitioner.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/IndividualAndGroupSpecialtiesVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/IndividualAndGroupSpecialtiesVS</t>
   </si>
   <si>
     <t>PRA-5</t>
@@ -1110,7 +1110,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Location)
 </t>
   </si>
   <si>
@@ -1132,7 +1132,7 @@
     <t>PractitionerRole.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-HealthcareService)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-HealthcareService)
 </t>
   </si>
   <si>
@@ -1176,7 +1176,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1189,7 +1189,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1460,7 +1460,7 @@
     <t>PractitionerRole.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Endpoint)
 </t>
   </si>
   <si>
